--- a/biology/Médecine/Liste_des_haras_de_Normandie/Liste_des_haras_de_Normandie.xlsx
+++ b/biology/Médecine/Liste_des_haras_de_Normandie/Liste_des_haras_de_Normandie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Listes des haras de Normandie, un haras est un lieu d'apprentissage et de pratique de l'équitation[1], elle fait partie intégrante de la vie rural en Normandie et dans le perche voisin[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Listes des haras de Normandie, un haras est un lieu d'apprentissage et de pratique de l'équitation, elle fait partie intégrante de la vie rural en Normandie et dans le perche voisin,.
 </t>
         </is>
       </c>
@@ -513,73 +525,216 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Eure
-Ecuries du Château de Jeufosse[4]
+          <t>Eure</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ecuries du Château de Jeufosse
 Ecuries des Chevaux de Tan
 Ecurie des Boscherons
 centre equestre poney-club haras du finiels
 EARL du Bois Inger (Erwan Ropars)
-HARAS D'AUZOUX[5]
-HARAS DE FOURQUES[6]
+HARAS D'AUZOUX
+HARAS DE FOURQUES
 Irish Cobs des Rivières
 Haras de la Hupinière Elevage pur sang arabe
-LES ECURIES DU MAUREY[7]
-La MUSSE
-Seine-Maritime
-CDE SEINE MARITIME
-CENTRE EQUESTRE DE SOQUENCE[8]
-MARECHALERIE NORMANDE[9]
+LES ECURIES DU MAUREY
+La MUSSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_haras_de_Normandie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_haras_de_Normandie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Listes des haras par départements normands</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Seine-Maritime</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CDE SEINE MARITIME
+CENTRE EQUESTRE DE SOQUENCE
+MARECHALERIE NORMANDE
 CDTE SEINE MARITIME
-LE CLOS DES PARADIS[10]
-Calvados
-CALVADOS POLO CLUB[11]
+LE CLOS DES PARADIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_haras_de_Normandie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_haras_de_Normandie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Listes des haras par départements normands</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Calvados</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CALVADOS POLO CLUB
 Association départementale d'attelage du calvados
 Marie Thomas - ÉQUITHÉRAPIE14
 Comité Départemental d'Equitation du CALVADOS
 MALTOT COUNTRY JUMP
-ÉCOLE D'ÉQUITATION LA BRUYÈRE[12]
-Manche
-Ségoleine Houyvet - Manche Equithérapie
+ÉCOLE D'ÉQUITATION LA BRUYÈRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_haras_de_Normandie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_haras_de_Normandie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Listes des haras par départements normands</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Manche</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ségoleine Houyvet - Manche Equithérapie
 EQUI MANCHE
 CDTE DE LA MANCHE (50)
-COMITE DE TOURISME EQUESTRE DE LA MANCHE[13]
-ASSOCIATION DEPARTEMENTALE D'ATTELAGE DE LA MANCHE[14]
-CDE MANCHE
-Ornes
-PC DE FLEURY SUR ORNE
+COMITE DE TOURISME EQUESTRE DE LA MANCHE
+ASSOCIATION DEPARTEMENTALE D'ATTELAGE DE LA MANCHE
+CDE MANCHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_haras_de_Normandie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_haras_de_Normandie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Listes des haras par départements normands</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ornes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PC DE FLEURY SUR ORNE
 Attelage Patrick Rébulard
 CENTRE DE LOISIRS EQUESTRES "LA ROTOURELLE"
-EQUICOMPET'ORNE[15]
-HIPPODROME DE BAGNOLES DE L'ORNE[16]
+EQUICOMPET'ORNE
+HIPPODROME DE BAGNOLES DE L'ORNE
 CDE ORNE</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Liste_des_haras_de_Normandie</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_haras_de_Normandie</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Voir Aussi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
